--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N2">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O2">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P2">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q2">
-        <v>1380.578774551109</v>
+        <v>2892.494313353525</v>
       </c>
       <c r="R2">
-        <v>1380.578774551109</v>
+        <v>26032.44882018173</v>
       </c>
       <c r="S2">
-        <v>0.07285869206757363</v>
+        <v>0.05961928766592745</v>
       </c>
       <c r="T2">
-        <v>0.07285869206757363</v>
+        <v>0.05961928766592745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N3">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q3">
-        <v>51.14060952803444</v>
+        <v>9.401949620585</v>
       </c>
       <c r="R3">
-        <v>51.14060952803444</v>
+        <v>84.617546585265</v>
       </c>
       <c r="S3">
-        <v>0.002698895557743593</v>
+        <v>0.0001937903685626727</v>
       </c>
       <c r="T3">
-        <v>0.002698895557743593</v>
+        <v>0.0001937903685626727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>131.336294436091</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>131.336294436091</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N4">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q4">
-        <v>6345.2966106821</v>
+        <v>6505.636041540865</v>
       </c>
       <c r="R4">
-        <v>6345.2966106821</v>
+        <v>58550.72437386779</v>
       </c>
       <c r="S4">
-        <v>0.3348668111933159</v>
+        <v>0.1340923592554166</v>
       </c>
       <c r="T4">
-        <v>0.3348668111933159</v>
+        <v>0.1340923592554166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>131.336294436091</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>131.336294436091</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.78966554476239</v>
+        <v>1.967779333333333</v>
       </c>
       <c r="N5">
-        <v>1.78966554476239</v>
+        <v>5.903338</v>
       </c>
       <c r="O5">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536815</v>
       </c>
       <c r="P5">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536816</v>
       </c>
       <c r="Q5">
-        <v>235.0480409290405</v>
+        <v>240.56695635469</v>
       </c>
       <c r="R5">
-        <v>235.0480409290405</v>
+        <v>2165.10260719221</v>
       </c>
       <c r="S5">
-        <v>0.01240443004833508</v>
+        <v>0.004958499142976162</v>
       </c>
       <c r="T5">
-        <v>0.01240443004833508</v>
+        <v>0.004958499142976162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>178.507776328152</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>178.507776328152</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N6">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O6">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P6">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q6">
-        <v>8624.30901510315</v>
+        <v>3135.996027465103</v>
       </c>
       <c r="R6">
-        <v>8624.30901510315</v>
+        <v>28223.96424718592</v>
       </c>
       <c r="S6">
-        <v>0.4551394577475721</v>
+        <v>0.06463827721890369</v>
       </c>
       <c r="T6">
-        <v>0.4551394577475721</v>
+        <v>0.06463827721890371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>178.507776328152</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>178.507776328152</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N7">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P7">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q7">
-        <v>319.469216766645</v>
+        <v>10.19344325914944</v>
       </c>
       <c r="R7">
-        <v>319.469216766645</v>
+        <v>91.74098933234499</v>
       </c>
       <c r="S7">
-        <v>0.01685967488312144</v>
+        <v>0.0002101044151298431</v>
       </c>
       <c r="T7">
-        <v>0.01685967488312144</v>
+        <v>0.0002101044151298432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.7755534428927</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>39.7755534428927</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.1051720385023381</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.1051720385023381</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N8">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O8">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P8">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q8">
-        <v>1921.690310609495</v>
+        <v>7053.306444966701</v>
       </c>
       <c r="R8">
-        <v>1921.690310609495</v>
+        <v>63479.7580047003</v>
       </c>
       <c r="S8">
-        <v>0.1014153231752107</v>
+        <v>0.1453807891676965</v>
       </c>
       <c r="T8">
-        <v>0.1014153231752107</v>
+        <v>0.1453807891676965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.7755534428927</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>39.7755534428927</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.1051720385023381</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.1051720385023381</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.78966554476239</v>
+        <v>1.967779333333333</v>
       </c>
       <c r="N9">
-        <v>1.78966554476239</v>
+        <v>5.903338</v>
       </c>
       <c r="O9">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536815</v>
       </c>
       <c r="P9">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536816</v>
       </c>
       <c r="Q9">
-        <v>71.18493752060012</v>
+        <v>260.8188427492589</v>
       </c>
       <c r="R9">
-        <v>71.18493752060012</v>
+        <v>2347.36958474333</v>
       </c>
       <c r="S9">
-        <v>0.003756715327127368</v>
+        <v>0.005375925388262581</v>
       </c>
       <c r="T9">
-        <v>0.003756715327127368</v>
+        <v>0.005375925388262583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>320.0894206666666</v>
+      </c>
+      <c r="H10">
+        <v>960.2682619999999</v>
+      </c>
+      <c r="I10">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="J10">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N10">
+        <v>70.979705</v>
+      </c>
+      <c r="O10">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P10">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q10">
+        <v>7573.284217513634</v>
+      </c>
+      <c r="R10">
+        <v>68159.5579576227</v>
+      </c>
+      <c r="S10">
+        <v>0.1560984262804975</v>
+      </c>
+      <c r="T10">
+        <v>0.1560984262804976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>320.0894206666666</v>
+      </c>
+      <c r="H11">
+        <v>960.2682619999999</v>
+      </c>
+      <c r="I11">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="J11">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.230717</v>
+      </c>
+      <c r="O11">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P11">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q11">
+        <v>24.61669028931711</v>
+      </c>
+      <c r="R11">
+        <v>221.550212603854</v>
+      </c>
+      <c r="S11">
+        <v>0.0005073923682291656</v>
+      </c>
+      <c r="T11">
+        <v>0.0005073923682291658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>320.0894206666666</v>
+      </c>
+      <c r="H12">
+        <v>960.2682619999999</v>
+      </c>
+      <c r="I12">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="J12">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N12">
+        <v>159.643573</v>
+      </c>
+      <c r="O12">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P12">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q12">
+        <v>17033.4062649089</v>
+      </c>
+      <c r="R12">
+        <v>153300.6563841801</v>
+      </c>
+      <c r="S12">
+        <v>0.3510878287123865</v>
+      </c>
+      <c r="T12">
+        <v>0.3510878287123866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>320.0894206666666</v>
+      </c>
+      <c r="H13">
+        <v>960.2682619999999</v>
+      </c>
+      <c r="I13">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="J13">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.903338</v>
+      </c>
+      <c r="O13">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P13">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q13">
+        <v>629.8653468065062</v>
+      </c>
+      <c r="R13">
+        <v>5668.788121258555</v>
+      </c>
+      <c r="S13">
+        <v>0.01298260920641837</v>
+      </c>
+      <c r="T13">
+        <v>0.01298260920641837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H14">
+        <v>119.60968</v>
+      </c>
+      <c r="I14">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J14">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N14">
+        <v>70.979705</v>
+      </c>
+      <c r="O14">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P14">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q14">
+        <v>943.3177557271555</v>
+      </c>
+      <c r="R14">
+        <v>8489.859801544399</v>
+      </c>
+      <c r="S14">
+        <v>0.01944340301014124</v>
+      </c>
+      <c r="T14">
+        <v>0.01944340301014125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H15">
+        <v>119.60968</v>
+      </c>
+      <c r="I15">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J15">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.230717</v>
+      </c>
+      <c r="O15">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P15">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q15">
+        <v>3.066220726728889</v>
+      </c>
+      <c r="R15">
+        <v>27.59598654056</v>
+      </c>
+      <c r="S15">
+        <v>6.320008814196617E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.32000881419662E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H16">
+        <v>119.60968</v>
+      </c>
+      <c r="I16">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J16">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N16">
+        <v>159.643573</v>
+      </c>
+      <c r="O16">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P16">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q16">
+        <v>2121.657408954071</v>
+      </c>
+      <c r="R16">
+        <v>19094.91668058664</v>
+      </c>
+      <c r="S16">
+        <v>0.04373101195359862</v>
+      </c>
+      <c r="T16">
+        <v>0.04373101195359862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H17">
+        <v>119.60968</v>
+      </c>
+      <c r="I17">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J17">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.903338</v>
+      </c>
+      <c r="O17">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P17">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q17">
+        <v>78.45515212353777</v>
+      </c>
+      <c r="R17">
+        <v>706.09636911184</v>
+      </c>
+      <c r="S17">
+        <v>0.001617095757711041</v>
+      </c>
+      <c r="T17">
+        <v>0.001617095757711042</v>
       </c>
     </row>
   </sheetData>
